--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_23.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>775709.5231931269</v>
+        <v>777960.2827101271</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6774630.939993226</v>
+        <v>6774630.939993228</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>153.7680905114898</v>
       </c>
     </row>
     <row r="3">
@@ -744,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7.106574134391062</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -786,13 +786,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>186.0104598622175</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>130.4655268502615</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -911,13 +911,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>169.0708280266249</v>
       </c>
     </row>
     <row r="6">
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>14.48693373137008</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>119.8469440170073</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>152.2040830703687</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>165.7173798661023</v>
       </c>
       <c r="Y8" t="n">
         <v>205.5178444382804</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1266,19 +1266,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
+        <v>196.2369034892017</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>51.16769109581779</v>
-      </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,13 +1333,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1509,13 +1509,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1616,55 +1616,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,22 +1731,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>180.2735260549796</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>7.814628069999132</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1844,28 +1844,28 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>146.1932996118735</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,16 +2081,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2126,7 +2126,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>42.96987856235913</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,22 +2211,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>135.4132168533397</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,22 +2324,22 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,22 +2360,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,25 +2397,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>45.28887413297245</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,7 +2445,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>9.245357950761532</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2561,58 +2561,58 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T26" t="n">
+        <v>222.3396163656985</v>
+      </c>
+      <c r="U26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U26" t="n">
-        <v>230.2038249569697</v>
-      </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>135.4141600157168</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,16 +2804,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2843,16 +2843,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>66.04188699111461</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>61.77856551940151</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3007,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,13 +3080,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7754091721597961</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>87.30419356256881</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3159,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,10 +3272,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3284,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="36">
@@ -3345,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>110.1497834296626</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>46.95413222834604</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3424,7 +3424,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3597,7 +3597,7 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>50.09491813359885</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>11.09880012417923</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3703,10 +3703,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,11 +3737,11 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="C41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C41" t="n">
-        <v>31.1509994400877</v>
-      </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3822,16 +3822,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>81.44781579947814</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3864,19 +3864,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>182.8712838381066</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3916,13 +3916,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3937,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4068,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4107,19 +4107,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>182.8712838381066</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
+        <v>120.0500723064956</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>604.3859801240053</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="C2" t="n">
-        <v>604.3859801240053</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="D2" t="n">
-        <v>604.3859801240053</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6989813239244</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G2" t="n">
         <v>28.51141680214578</v>
@@ -4334,13 +4334,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X2" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y2" t="n">
-        <v>604.3859801240053</v>
+        <v>251.5625096843836</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="C3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="D3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E3" t="n">
-        <v>506.1297083336119</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F3" t="n">
         <v>359.5951503604969</v>
@@ -4413,13 +4413,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>570.0333416264414</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
         <v>570.0333416264414</v>
@@ -4434,25 +4434,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="V3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="W3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="X3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="Y3" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
     </row>
     <row r="4">
@@ -4522,13 +4522,13 @@
         <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C5" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D5" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E5" t="n">
-        <v>443.6989813239244</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4598,19 +4598,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="V5" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="W5" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="X5" t="n">
-        <v>614.4775954922324</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
         <v>16.44142755506243</v>
@@ -4668,28 +4668,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X6" t="n">
-        <v>406.8838132313431</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y6" t="n">
-        <v>199.2900309704538</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>110.7436296931158</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4756,19 +4756,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>110.7436296931158</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243.0506998122385</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="C8" t="n">
-        <v>243.0506998122385</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="D8" t="n">
-        <v>243.0506998122385</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="E8" t="n">
-        <v>243.0506998122385</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F8" t="n">
-        <v>236.1051990630351</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
@@ -4808,7 +4808,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
         <v>379.753706324525</v>
@@ -4823,31 +4823,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V8" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>658.2382643340171</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X8" t="n">
-        <v>658.2382643340171</v>
+        <v>654.6800849590788</v>
       </c>
       <c r="Y8" t="n">
-        <v>450.6444820731278</v>
+        <v>447.0863026981896</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.0297473238067</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="C9" t="n">
-        <v>254.0297473238067</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="D9" t="n">
-        <v>254.0297473238067</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="E9" t="n">
-        <v>254.0297473238067</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="F9" t="n">
         <v>107.4951893506917</v>
@@ -4893,10 +4893,10 @@
         <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4914,19 +4914,19 @@
         <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V9" t="n">
-        <v>513.308066045118</v>
+        <v>315.088971611581</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>315.088971611581</v>
       </c>
       <c r="X9" t="n">
-        <v>461.623529584696</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="Y9" t="n">
-        <v>254.0297473238067</v>
+        <v>107.4951893506917</v>
       </c>
     </row>
     <row r="10">
@@ -4981,22 +4981,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
         <v>16.44142755506243</v>
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="C11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
         <v>16.44142755506243</v>
@@ -5051,10 +5051,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O11" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
@@ -5078,13 +5078,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X11" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y11" t="n">
         <v>639.2227743377304</v>
-      </c>
-      <c r="X11" t="n">
-        <v>431.628992076841</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>190.8944568361894</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5124,16 +5124,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>142.2888212580996</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>345.7514872519972</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5157,13 +5157,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5279,10 +5279,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5297,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5361,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5379,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T15" t="n">
-        <v>639.976906990516</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U15" t="n">
-        <v>432.3831247296267</v>
+        <v>137.7041268545529</v>
       </c>
       <c r="V15" t="n">
-        <v>224.7893424687375</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>129.8105631474831</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5492,25 +5492,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C18" t="n">
-        <v>816.3871559026832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,13 +5598,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
         <v>781.4136778972854</v>
@@ -5616,28 +5616,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="19">
@@ -5710,10 +5710,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5774,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>168.215552771464</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="C21" t="n">
-        <v>168.215552771464</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>405.0846510026181</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>405.0846510026181</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,16 +5832,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V21" t="n">
-        <v>827.2761283860507</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W21" t="n">
-        <v>583.8273517419507</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X21" t="n">
-        <v>375.9758515364179</v>
+        <v>554.0190606638694</v>
       </c>
       <c r="Y21" t="n">
-        <v>168.215552771464</v>
+        <v>554.0190606638694</v>
       </c>
     </row>
     <row r="22">
@@ -5932,22 +5932,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
         <v>19.28114311021272</v>
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y23" t="n">
-        <v>30.58726043968704</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,10 +6072,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,25 +6093,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="25">
@@ -6127,13 +6127,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
         <v>19.28114311021272</v>
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6309,46 +6309,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>399.5118995681682</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>156.0631229240681</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="28">
@@ -6406,19 +6406,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>384.71253294454</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>225.4750779390845</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
         <v>20.03527576299844</v>
@@ -6543,19 +6543,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6579,13 +6579,13 @@
         <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
-        <v>290.1981659616912</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X30" t="n">
-        <v>227.7955745279523</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6655,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W32" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>492.48569440222</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="C33" t="n">
-        <v>318.0326651210929</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="D33" t="n">
-        <v>318.0326651210929</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="E33" t="n">
-        <v>158.7952101156374</v>
+        <v>506.1017161967378</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>359.5671582236228</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>220.8363328062383</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>107.4671972138176</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,22 +6780,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N33" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6807,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>660.701031422288</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X33" t="n">
-        <v>660.701031422288</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y33" t="n">
-        <v>660.701031422288</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6880,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F35" t="n">
-        <v>506.1786963984129</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="G35" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>304.9965798960495</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="C36" t="n">
-        <v>130.5435506149225</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>478.8011081705279</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>319.5636531650724</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,13 +7023,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X36" t="n">
-        <v>512.7568786610034</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y36" t="n">
-        <v>304.9965798960495</v>
+        <v>627.7355178317791</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7069,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7111,34 +7111,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7202,19 +7202,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>251.810259228364</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
         <v>19.28114311021272</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>194.4883050441255</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H39" t="n">
         <v>20.03527576299844</v>
@@ -7257,19 +7257,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7278,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>812.2866986558463</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>610.1001040146123</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>610.1001040146123</v>
+        <v>476.0727776566142</v>
       </c>
       <c r="V39" t="n">
-        <v>610.1001040146123</v>
+        <v>476.0727776566142</v>
       </c>
       <c r="W39" t="n">
-        <v>610.1001040146123</v>
+        <v>476.0727776566142</v>
       </c>
       <c r="X39" t="n">
-        <v>402.2486038090794</v>
+        <v>476.0727776566142</v>
       </c>
       <c r="Y39" t="n">
-        <v>194.4883050441255</v>
+        <v>476.0727776566142</v>
       </c>
     </row>
     <row r="40">
@@ -7351,7 +7351,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
         <v>19.28114311021272</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90708355515102</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C41" t="n">
         <v>16.44142755506243</v>
@@ -7412,13 +7412,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7433,28 +7433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X41" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y41" t="n">
-        <v>255.5008658160403</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>406.8838132313431</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="C42" t="n">
-        <v>406.8838132313431</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="D42" t="n">
-        <v>257.9494035700918</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="E42" t="n">
-        <v>98.71194856463632</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G42" t="n">
         <v>16.44142755506243</v>
@@ -7491,19 +7491,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3667595428576</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>626.8294255367553</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7512,28 +7512,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>362.7660352333362</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>155.1722529724469</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7585,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7652,46 +7652,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7701,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
         <v>16.44142755506243</v>
@@ -7734,16 +7734,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7755,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>362.7660352333362</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U45" t="n">
-        <v>155.1722529724469</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V45" t="n">
-        <v>155.1722529724469</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W45" t="n">
-        <v>155.1722529724469</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.1722529724469</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7991,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8061,7 +8061,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,7 +8070,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>290.7443071551351</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,10 +8225,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8456,10 +8456,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8541,13 +8541,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8699,13 +8699,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>139.0491612396719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8784,7 +8784,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
@@ -9018,10 +9018,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>164.1205091169155</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,16 +9246,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9489,10 +9489,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9720,13 +9720,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9957,10 +9957,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M27" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9969,10 +9969,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10200,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,16 +10671,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,22 +10905,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11060,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,10 +11151,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P42" t="n">
-        <v>261.0929869123474</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23318,13 +23318,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>205.2178212748162</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.2215652569456</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>164.269800956783</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23397,13 +23397,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>225.8559283604741</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23589,13 +23589,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,22 +23619,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>19.89120263984205</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>224.9859590794261</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23732,28 +23732,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>162.9782053421103</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23811,28 +23811,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>26.51519937644221</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,16 +23969,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24057,16 +24057,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>102.0993338310248</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24099,22 +24099,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>97.38737029608561</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24190,7 +24190,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24212,22 +24212,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>370.7373139160822</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24248,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,25 +24285,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>127.4196248553433</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24333,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4378131530763</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284433</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309074</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24449,7 +24449,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24464,7 +24464,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,22 +24485,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U26" t="n">
-        <v>21.14182795086677</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>82.31446349940144</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24567,7 +24567,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24582,13 +24582,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>70.35882518776063</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24661,7 +24661,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24692,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24731,16 +24731,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>20.80116313523413</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24762,16 +24762,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>79.02732540226927</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>143.994419684076</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24895,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>162.5207159210556</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24959,7 +24959,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,13 +24968,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>39.0602672643945</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>144.2938032212241</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>2.092439288846265</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25047,7 +25047,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25059,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,10 +25160,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>405.0665496686753</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,7 +25172,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25196,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25220,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="36">
@@ -25233,28 +25233,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>37.29528213497613</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>98.11508016503784</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25290,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25312,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25351,7 +25351,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>155.8535025062293</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25442,22 +25442,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>108.226679839754</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25467,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25485,7 +25485,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25518,13 +25518,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>121.588252970239</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>214.8425819567956</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25533,10 +25533,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25591,10 +25591,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,10 +25625,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.2159972252002</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C41" t="n">
-        <v>334.1218923309199</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25673,7 +25673,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25710,16 +25710,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>63.62139659390574</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25752,19 +25752,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>17.29344485671501</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25804,13 +25804,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25825,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>211.7044234967879</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25880,7 +25880,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25907,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,7 +25925,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361756</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25956,7 +25956,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -25995,10 +25995,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>17.29344485671501</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>105.8913097744792</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26007,7 +26007,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426302.732123639</v>
+        <v>426302.7321236391</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426302.732123639</v>
+        <v>426302.7321236389</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501004</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449050.6304501003</v>
+        <v>449050.6304501005</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>449050.6304501003</v>
+        <v>449050.6304501005</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449050.6304501003</v>
+        <v>449050.6304501005</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426302.732123639</v>
+        <v>426302.7321236391</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426302.7321236391</v>
+        <v>426302.732123639</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
@@ -26326,7 +26326,7 @@
         <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
-        <v>191084.7734110322</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="H2" t="n">
         <v>191084.7734110322</v>
@@ -26338,13 +26338,13 @@
         <v>191084.7734110323</v>
       </c>
       <c r="K2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="L2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="L2" t="n">
-        <v>191084.7734110323</v>
-      </c>
       <c r="M2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="N2" t="n">
         <v>191084.7734110323</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179308</v>
       </c>
       <c r="C4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179307</v>
       </c>
       <c r="D4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179307</v>
       </c>
       <c r="E4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="F4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="O4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048261</v>
       </c>
       <c r="P4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12575.38323670763</v>
+        <v>12838.21663049496</v>
       </c>
       <c r="C6" t="n">
-        <v>81449.13981839738</v>
+        <v>81711.97321218485</v>
       </c>
       <c r="D6" t="n">
-        <v>81449.13981839744</v>
+        <v>81711.97321218485</v>
       </c>
       <c r="E6" t="n">
-        <v>112936.8844040539</v>
+        <v>113199.7177978413</v>
       </c>
       <c r="F6" t="n">
-        <v>112936.8844040539</v>
+        <v>113199.7177978413</v>
       </c>
       <c r="G6" t="n">
-        <v>107672.4533756237</v>
+        <v>107949.4791739305</v>
       </c>
       <c r="H6" t="n">
-        <v>117401.4963497908</v>
+        <v>117678.5221480975</v>
       </c>
       <c r="I6" t="n">
-        <v>117401.4963497909</v>
+        <v>117678.5221480976</v>
       </c>
       <c r="J6" t="n">
-        <v>63628.98545958144</v>
+        <v>63906.0112578882</v>
       </c>
       <c r="K6" t="n">
-        <v>117401.4963497907</v>
+        <v>117678.5221480976</v>
       </c>
       <c r="L6" t="n">
-        <v>117401.4963497909</v>
+        <v>117678.5221480976</v>
       </c>
       <c r="M6" t="n">
-        <v>117401.4963497909</v>
+        <v>117678.5221480976</v>
       </c>
       <c r="N6" t="n">
-        <v>117401.4963497909</v>
+        <v>117678.5221480976</v>
       </c>
       <c r="O6" t="n">
-        <v>112936.8844040539</v>
+        <v>113199.7177978413</v>
       </c>
       <c r="P6" t="n">
-        <v>112936.8844040539</v>
+        <v>113199.7177978413</v>
       </c>
     </row>
   </sheetData>
@@ -27385,13 +27385,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>222.8502412601817</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>232.4698481445637</v>
       </c>
     </row>
     <row r="3">
@@ -27464,10 +27464,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>150.5385063210099</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>39.9309222187573</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6721164735665</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183328</v>
       </c>
     </row>
     <row r="5">
@@ -27631,13 +27631,13 @@
         <v>209.7848930768546</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>158.4546847345297</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>217.1671106294287</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -27701,7 +27701,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>143.1581467240309</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,13 +27749,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>131.8480391439123</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>246.4912418877957</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>201.358201303431</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>197.0368856470443</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>204.0137208123667</v>
       </c>
       <c r="Y8" t="n">
         <v>180.7200942177732</v>
@@ -27941,7 +27941,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27986,19 +27986,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>36.56368366022357</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>154.6052941076597</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>179.7131144384051</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,7 +28071,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>156.0574714863295</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34702,7 +34702,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34711,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34781,7 +34781,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,7 +34790,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,10 +34945,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35176,10 +35176,10 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35261,13 +35261,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35419,13 +35419,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35504,7 +35504,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35647,13 +35647,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,7 +35729,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
@@ -35738,10 +35738,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>21.52426467247106</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35896,7 +35896,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,16 +35966,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36209,10 +36209,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36440,13 +36440,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M27" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36689,10 +36689,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,13 +36920,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N33" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N33" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,10 +37871,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P42" t="n">
-        <v>127.1185794980172</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>777960.2827101271</v>
+        <v>778744.4286481556</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14829673.35797655</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6774630.939993228</v>
+        <v>6774630.939993226</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="F2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>153.7680905114898</v>
       </c>
     </row>
     <row r="3">
@@ -741,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>186.0104598622175</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>97.16285988560612</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="4">
@@ -874,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,58 +904,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>155.7266806515576</v>
       </c>
       <c r="F5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H5" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -972,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>119.8469440170073</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1151,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>146.8920447697784</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>165.7173798661023</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>141.5655248370115</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>196.2369034892017</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="H11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
+      <c r="I11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
       <c r="Y11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8.438698031532754</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>114.6969565630368</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1616,19 +1618,19 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>169.0708280266249</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1731,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>7.814628069999132</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>220.8837963815379</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1923,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2062,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2084,25 +2086,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>202.2946864288972</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
+        <v>50.46697834767978</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2138,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2163,22 +2165,22 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>42.96987856235913</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2244,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2327,19 +2329,19 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2360,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>9.73723617201896</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>45.28887413297245</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -2445,7 +2447,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.245357950761532</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2497,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2552,19 +2554,19 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2576,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.3396163656985</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>241.0142888776591</v>
@@ -2637,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>65.13060206523731</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2685,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -2694,13 +2696,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2728,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="I29" t="n">
-        <v>200.3360962888296</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
     </row>
     <row r="30">
@@ -2868,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>66.04188699111461</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -3080,19 +3082,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>88.05756064065925</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>87.30419356256881</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3275,7 +3277,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.809496073036132</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3284,7 +3286,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>46.95413222834604</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>36.43923176655773</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3402,16 +3404,16 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,52 +3426,52 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3579,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3594,13 +3596,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>88.23535092263147</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3636,7 +3638,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>11.09880012417923</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3703,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>205.5178444382804</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3822,16 +3824,16 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,16 +3869,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>40.9920223654736</v>
       </c>
       <c r="T42" t="n">
-        <v>182.8712838381066</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3916,13 +3918,13 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3937,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.83685490770582</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4065,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -4110,7 +4112,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>120.0500723064956</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.5625096843836</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C2" t="n">
-        <v>251.5625096843836</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D2" t="n">
-        <v>251.5625096843836</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E2" t="n">
-        <v>251.5625096843836</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F2" t="n">
-        <v>43.96872742349432</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
         <v>28.51141680214578</v>
@@ -4331,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4367,13 +4369,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X2" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y2" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X2" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>251.5625096843836</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>359.5951503604969</v>
+        <v>516.3332925774787</v>
       </c>
       <c r="C3" t="n">
-        <v>359.5951503604969</v>
+        <v>516.3332925774787</v>
       </c>
       <c r="D3" t="n">
-        <v>359.5951503604969</v>
+        <v>367.3988829162274</v>
       </c>
       <c r="E3" t="n">
-        <v>359.5951503604969</v>
+        <v>367.3988829162274</v>
       </c>
       <c r="F3" t="n">
-        <v>359.5951503604969</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="G3" t="n">
         <v>220.8643249431123</v>
@@ -4410,19 +4412,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M3" t="n">
-        <v>219.90409354896</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N3" t="n">
-        <v>423.3667595428576</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P3" t="n">
         <v>752.6768192397923</v>
@@ -4431,28 +4433,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>359.5951503604969</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W3" t="n">
-        <v>359.5951503604969</v>
+        <v>723.927074838368</v>
       </c>
       <c r="X3" t="n">
-        <v>359.5951503604969</v>
+        <v>723.927074838368</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.5951503604969</v>
+        <v>516.3332925774787</v>
       </c>
     </row>
     <row r="4">
@@ -4522,13 +4524,13 @@
         <v>148.224788009872</v>
       </c>
       <c r="V4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
         <v>16.44142755506243</v>
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E5" t="n">
-        <v>614.4775954922324</v>
+        <v>239.4925204373003</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8838132313431</v>
+        <v>31.89873817641097</v>
       </c>
       <c r="G5" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
         <v>16.44142755506243</v>
@@ -4577,7 +4579,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4586,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C6" t="n">
         <v>16.44142755506243</v>
@@ -4653,43 +4655,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>239.4925204373003</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="C8" t="n">
-        <v>239.4925204373003</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="D8" t="n">
-        <v>239.4925204373003</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="E8" t="n">
-        <v>239.4925204373003</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="F8" t="n">
-        <v>31.89873817641097</v>
+        <v>251.5625096843836</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4829,25 +4831,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>466.1017926944764</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="X8" t="n">
-        <v>654.6800849590788</v>
+        <v>258.5080104335871</v>
       </c>
       <c r="Y8" t="n">
-        <v>447.0863026981896</v>
+        <v>258.5080104335871</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="C9" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="D9" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="E9" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="F9" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G9" t="n">
-        <v>107.4951893506917</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I9" t="n">
         <v>17.19556020784815</v>
@@ -4887,7 +4889,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
         <v>345.2616536067974</v>
@@ -4896,7 +4898,7 @@
         <v>548.724319600695</v>
       </c>
       <c r="O9" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V9" t="n">
-        <v>315.088971611581</v>
+        <v>476.8893034785426</v>
       </c>
       <c r="W9" t="n">
-        <v>315.088971611581</v>
+        <v>476.8893034785426</v>
       </c>
       <c r="X9" t="n">
-        <v>107.4951893506917</v>
+        <v>476.8893034785426</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.4951893506917</v>
+        <v>269.2955212176533</v>
       </c>
     </row>
     <row r="10">
@@ -4978,25 +4980,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
         <v>16.44142755506243</v>
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="C11" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="D11" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="E11" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="F11" t="n">
+        <v>614.4775954922324</v>
+      </c>
+      <c r="G11" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="G11" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5081,10 +5083,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>813.547440347533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>664.6130306862817</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
         <v>16.44142755506243</v>
@@ -5127,10 +5129,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5252,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>129.8105631474831</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>129.8105631474831</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>129.8105631474831</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>129.8105631474831</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>129.8105631474831</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5367,10 +5369,10 @@
         <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5379,28 +5381,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R15" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>129.8105631474831</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
         <v>730.8505943024719</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>20.03527576299844</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>20.03527576299844</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>20.03527576299844</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>20.03527576299844</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5598,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5710,7 +5712,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="C20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y20" t="n">
-        <v>710.516763498309</v>
+        <v>812.6742080953335</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>405.0846510026181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>405.0846510026181</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,13 +5840,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U21" t="n">
-        <v>761.8705608694022</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V21" t="n">
-        <v>761.8705608694022</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W21" t="n">
-        <v>761.8705608694022</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X21" t="n">
-        <v>554.0190606638694</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>554.0190606638694</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F23" t="n">
-        <v>730.8505943024719</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>487.4018176583718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C24" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
         <v>20.03527576299844</v>
@@ -6072,10 +6074,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6093,25 +6095,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="V24" t="n">
-        <v>862.8876260635219</v>
+        <v>853.5488806587123</v>
       </c>
       <c r="W24" t="n">
-        <v>862.8876260635219</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X24" t="n">
-        <v>862.8876260635219</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y24" t="n">
-        <v>862.8876260635219</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>31.35113235729608</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6281,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>85.06963004479587</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>85.06963004479587</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6308,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W27" t="n">
-        <v>500.6814290152826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X27" t="n">
-        <v>292.8299288097498</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y27" t="n">
-        <v>85.06963004479587</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6421,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>533.6469426057913</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C30" t="n">
-        <v>533.6469426057913</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D30" t="n">
-        <v>384.71253294454</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E30" t="n">
-        <v>225.4750779390845</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="F30" t="n">
-        <v>158.7661011803829</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>533.6469426057913</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>533.6469426057913</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X30" t="n">
-        <v>533.6469426057913</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y30" t="n">
-        <v>533.6469426057913</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="31">
@@ -6655,7 +6657,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V32" t="n">
-        <v>728.6161971483371</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="W32" t="n">
-        <v>485.167420504237</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="X32" t="n">
-        <v>241.7186438601369</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.7186438601369</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="C33" t="n">
-        <v>655.0361258579891</v>
+        <v>414.0001870389441</v>
       </c>
       <c r="D33" t="n">
-        <v>506.1017161967378</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>506.1017161967378</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>359.5671582236228</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>220.8363328062383</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>107.4671972138176</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6783,46 +6785,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W33" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y33" t="n">
-        <v>655.0361258579891</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="34">
@@ -6880,13 +6882,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
         <v>19.28114311021272</v>
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F35" t="n">
-        <v>718.7806050553886</v>
+        <v>710.516763498309</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>467.067986854209</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>627.7355178317791</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C36" t="n">
-        <v>627.7355178317791</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D36" t="n">
-        <v>478.8011081705279</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="E36" t="n">
-        <v>319.5636531650724</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="F36" t="n">
-        <v>272.1352367728036</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="G36" t="n">
-        <v>133.4044113554191</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>56.84258057770322</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7020,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X36" t="n">
-        <v>627.7355178317791</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y36" t="n">
-        <v>627.7355178317791</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="37">
@@ -7069,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
         <v>19.28114311021272</v>
@@ -7117,28 +7119,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>251.810259228364</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>307.8574406365461</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C39" t="n">
-        <v>133.4044113554191</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="D39" t="n">
-        <v>133.4044113554191</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="E39" t="n">
-        <v>133.4044113554191</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="F39" t="n">
-        <v>133.4044113554191</v>
+        <v>312.8306575918298</v>
       </c>
       <c r="G39" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7257,10 +7259,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7284,19 +7286,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>476.0727776566142</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>476.0727776566142</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W39" t="n">
-        <v>476.0727776566142</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X39" t="n">
-        <v>476.0727776566142</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y39" t="n">
-        <v>476.0727776566142</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="40">
@@ -7351,7 +7353,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
         <v>19.28114311021272</v>
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224.0352098159517</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7415,7 +7417,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7433,28 +7435,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V41" t="n">
-        <v>614.4775954922324</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W41" t="n">
-        <v>614.4775954922324</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X41" t="n">
-        <v>614.4775954922324</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y41" t="n">
-        <v>406.8838132313431</v>
+        <v>47.90708355515102</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>155.1722529724469</v>
+        <v>471.90198284767</v>
       </c>
       <c r="C42" t="n">
-        <v>155.1722529724469</v>
+        <v>471.90198284767</v>
       </c>
       <c r="D42" t="n">
-        <v>155.1722529724469</v>
+        <v>322.9675731864187</v>
       </c>
       <c r="E42" t="n">
-        <v>155.1722529724469</v>
+        <v>163.7301181809632</v>
       </c>
       <c r="F42" t="n">
-        <v>155.1722529724469</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7515,25 +7517,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>547.4845037566762</v>
+        <v>679.4957651085592</v>
       </c>
       <c r="T42" t="n">
-        <v>362.7660352333362</v>
+        <v>679.4957651085592</v>
       </c>
       <c r="U42" t="n">
-        <v>362.7660352333362</v>
+        <v>679.4957651085592</v>
       </c>
       <c r="V42" t="n">
-        <v>362.7660352333362</v>
+        <v>471.90198284767</v>
       </c>
       <c r="W42" t="n">
-        <v>362.7660352333362</v>
+        <v>471.90198284767</v>
       </c>
       <c r="X42" t="n">
-        <v>362.7660352333362</v>
+        <v>471.90198284767</v>
       </c>
       <c r="Y42" t="n">
-        <v>155.1722529724469</v>
+        <v>471.90198284767</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="C43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="D43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="E43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="F43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="G43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="H43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="I43" t="n">
-        <v>687.5390872628509</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="J43" t="n">
-        <v>687.5390872628509</v>
+        <v>710.0335234506114</v>
       </c>
       <c r="K43" t="n">
         <v>687.5390872628509</v>
@@ -7585,34 +7587,34 @@
         <v>822.0713777531216</v>
       </c>
       <c r="P43" t="n">
-        <v>822.0713777531216</v>
+        <v>819.3224477176605</v>
       </c>
       <c r="Q43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="R43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="S43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="T43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="U43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="V43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="W43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="X43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
       <c r="Y43" t="n">
-        <v>822.0713777531216</v>
+        <v>804.3357255886647</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7649,49 +7651,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V44" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>189.1984156022267</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="F45" t="n">
         <v>16.44142755506243</v>
@@ -7731,13 +7733,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>142.2888212580996</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>345.7514872519972</v>
       </c>
       <c r="N45" t="n">
-        <v>752.1869855945927</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O45" t="n">
         <v>752.6768192397923</v>
@@ -7749,28 +7751,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T45" t="n">
-        <v>345.2979091154422</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U45" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="V45" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="W45" t="n">
-        <v>224.0352098159517</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="X45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="46">
@@ -7979,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7991,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M3" t="n">
         <v>347.6518783602987</v>
@@ -8070,10 +8072,10 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8225,10 +8227,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8301,7 +8303,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8310,10 +8312,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P9" t="n">
-        <v>134.4691888741278</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8775,13 +8777,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>164.1205091169155</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8927,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9015,13 +9017,13 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O15" t="n">
-        <v>143.091025904242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9720,13 +9722,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9968,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,13 +10202,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,22 +10433,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10588,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10668,19 +10670,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10905,13 +10907,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11063,10 +11065,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11297,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11379,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>139.0491612396719</v>
       </c>
       <c r="M45" t="n">
         <v>347.6518783602987</v>
@@ -11388,7 +11390,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>234.2826201338976</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.2178212748162</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>164.269800956783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>85.4677721317848</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>41.40506154378102</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23619,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>224.9859590794261</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>185.9922493601736</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23811,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.8610253924609</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23950,10 +23952,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23972,25 +23974,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>152.3883551917857</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>356.4090673940316</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24051,22 +24053,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>102.0993338310248</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>121.6254758352848</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24215,19 +24217,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>199.2828334142264</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24285,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>127.4196248553433</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,7 +24335,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>162.4378131530763</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24385,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>46.33425578299912</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24440,19 +24442,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7562331984328523</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>10.33136403017744</v>
@@ -24525,7 +24527,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>82.31446349940144</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24573,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24582,13 +24584,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24616,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,16 +24694,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24734,19 +24736,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>333.812370168306</v>
       </c>
     </row>
     <row r="30">
@@ -24756,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>79.02732540226927</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>88.11176633258114</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>162.5207159210556</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,7 +24961,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
@@ -24968,19 +24970,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>59.38750492397951</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>2.092439288846265</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25059,7 +25061,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25120,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25129,7 +25131,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25163,7 +25165,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.0665496686753</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25172,7 +25174,7 @@
         <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25220,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>98.11508016503784</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>52.95740108485735</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25290,16 +25292,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,7 +25359,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25442,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>119.0371437604433</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25467,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25482,13 +25484,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>49.10816624057917</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25524,7 +25526,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>214.8425819567956</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -25591,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25625,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>346.0711816855324</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25673,7 +25675,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25688,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25710,16 +25712,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,16 +25757,16 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>130.6911487383642</v>
       </c>
       <c r="T42" t="n">
-        <v>17.29344485671501</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25804,13 +25806,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25825,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398857</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>168.2208513361756</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25953,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>130.3791503725255</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -25998,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>105.8913097744792</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426302.7321236391</v>
+        <v>426302.732123639</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426302.7321236389</v>
+        <v>426302.732123639</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449050.6304501004</v>
+        <v>449050.6304501005</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449050.6304501003</v>
+        <v>449050.6304501005</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426302.7321236391</v>
+        <v>426302.7321236389</v>
       </c>
     </row>
     <row r="16">
@@ -26326,7 +26328,7 @@
         <v>181421.2881101714</v>
       </c>
       <c r="G2" t="n">
-        <v>191084.7734110323</v>
+        <v>191084.7734110322</v>
       </c>
       <c r="H2" t="n">
         <v>191084.7734110322</v>
@@ -26335,16 +26337,16 @@
         <v>191084.7734110323</v>
       </c>
       <c r="J2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="K2" t="n">
+        <v>191084.7734110322</v>
+      </c>
+      <c r="L2" t="n">
         <v>191084.7734110323</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>191084.7734110323</v>
-      </c>
-      <c r="L2" t="n">
-        <v>191084.7734110322</v>
-      </c>
-      <c r="M2" t="n">
-        <v>191084.7734110322</v>
       </c>
       <c r="N2" t="n">
         <v>191084.7734110323</v>
@@ -26353,7 +26355,7 @@
         <v>181421.2881101714</v>
       </c>
       <c r="P2" t="n">
-        <v>181421.2881101714</v>
+        <v>181421.2881101713</v>
       </c>
     </row>
     <row r="3">
@@ -26418,7 +26420,7 @@
         <v>344263.9595179308</v>
       </c>
       <c r="C4" t="n">
-        <v>344263.9595179307</v>
+        <v>344263.9595179308</v>
       </c>
       <c r="D4" t="n">
         <v>344263.9595179307</v>
@@ -26430,31 +26432,31 @@
         <v>55726.0853704826</v>
       </c>
       <c r="G4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
         <v>58752.58249917301</v>
       </c>
       <c r="J4" t="n">
+        <v>58752.58249917301</v>
+      </c>
+      <c r="K4" t="n">
         <v>58752.58249917302</v>
-      </c>
-      <c r="K4" t="n">
-        <v>58752.58249917301</v>
       </c>
       <c r="L4" t="n">
         <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55726.08537048261</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="P4" t="n">
         <v>55726.0853704826</v>
@@ -26522,19 +26524,19 @@
         <v>12838.21663049496</v>
       </c>
       <c r="C6" t="n">
-        <v>81711.97321218485</v>
+        <v>81711.97321218476</v>
       </c>
       <c r="D6" t="n">
-        <v>81711.97321218485</v>
+        <v>81711.97321218482</v>
       </c>
       <c r="E6" t="n">
         <v>113199.7177978413</v>
       </c>
       <c r="F6" t="n">
-        <v>113199.7177978413</v>
+        <v>113199.7177978414</v>
       </c>
       <c r="G6" t="n">
-        <v>107949.4791739305</v>
+        <v>107949.4791739304</v>
       </c>
       <c r="H6" t="n">
         <v>117678.5221480975</v>
@@ -26543,13 +26545,13 @@
         <v>117678.5221480976</v>
       </c>
       <c r="J6" t="n">
-        <v>63906.0112578882</v>
+        <v>63906.01125788814</v>
       </c>
       <c r="K6" t="n">
-        <v>117678.5221480976</v>
+        <v>117678.5221480975</v>
       </c>
       <c r="L6" t="n">
-        <v>117678.5221480976</v>
+        <v>117678.5221480977</v>
       </c>
       <c r="M6" t="n">
         <v>117678.5221480976</v>
@@ -27385,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>212.8595420456369</v>
       </c>
       <c r="F2" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>232.4698481445637</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27461,16 +27463,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27503,28 +27505,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>39.9309222187573</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>154.5321232753135</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="4">
@@ -27594,7 +27596,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>226.2036894207042</v>
       </c>
       <c r="F5" t="n">
         <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>158.4546847345297</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27673,7 +27675,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27692,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>158.0184369674574</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27740,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>131.8480391439123</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,13 +27794,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,10 +27873,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>104.4536081380581</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>204.0137208123667</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27944,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27979,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>36.56368366022357</v>
+        <v>91.23506231241373</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -28050,16 +28052,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>179.7131144384051</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34711,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M3" t="n">
         <v>205.5178444382804</v>
@@ -34790,10 +34792,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -34945,10 +34947,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35021,7 +35023,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35030,10 +35032,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P9" t="n">
-        <v>0.494781459797586</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35647,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35735,13 +35737,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O15" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35896,7 +35898,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,16 +36208,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36440,13 +36442,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36688,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
@@ -36920,13 +36922,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37625,13 +37627,13 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37783,10 +37785,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -38017,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="M45" t="n">
         <v>205.5178444382804</v>
@@ -38108,7 +38110,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>778744.4286481556</v>
+        <v>709146.1496329315</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797655</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6774630.939993226</v>
+        <v>6833906.498149349</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>169.0708280266249</v>
+        <v>3.015063725959893</v>
       </c>
       <c r="F2" t="n">
-        <v>205.5178444382804</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -743,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -791,22 +791,22 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>46.38724422570586</v>
       </c>
       <c r="W3" t="n">
-        <v>97.16285988560612</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>26.16190956546851</v>
       </c>
       <c r="V4" t="n">
-        <v>130.4655268502615</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>155.7266806515576</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>105.6245995301945</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,19 +943,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>222.8034171219148</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>55.71194092525318</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,28 +1177,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>150.2142914581905</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -1232,7 +1232,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>141.5655248370115</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1384,16 +1384,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,28 +1414,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1472,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>114.6969565630368</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>205.5178444382804</v>
+        <v>157.2246750137608</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1615,22 +1615,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,13 +1651,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1688,25 +1688,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>24.09264407212913</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1733,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>222.3396163656984</v>
       </c>
       <c r="F17" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -1888,13 +1888,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="18">
@@ -1925,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>50.46697834767978</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2125,19 +2125,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.3396163656985</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2159,13 +2159,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.2666590267572</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>50.05769526855297</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2244,61 +2244,61 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>200.3360962888296</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2362,22 +2362,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.73723617201896</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2399,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>9.245357950761532</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>159.212726636044</v>
       </c>
     </row>
     <row r="25">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,67 +2560,67 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2639,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.09467281241118</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,16 +2681,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2699,7 +2699,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2836,10 +2836,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
@@ -2885,7 +2885,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>49.23175083062949</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>123.8814522403791</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,10 +3073,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
     </row>
     <row r="33">
@@ -3107,22 +3107,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>98.22847700514947</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>88.05756064065925</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3158,19 +3158,19 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,22 +3274,22 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3365,10 +3365,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36.43923176655773</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>241.0142888776591</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,16 +3596,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>88.23535092263147</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>25.26451666830244</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,19 +3629,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3784,16 +3784,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3802,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>40.9920223654736</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3915,16 +3915,16 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -3939,10 +3939,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>14.83685490770582</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,31 +4021,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>14.69006202085835</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4106,22 +4106,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="C2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="D2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="E2" t="n">
-        <v>443.6989813239244</v>
+        <v>92.80686254444122</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>85.86136179523774</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>70.4040511738892</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K2" t="n">
-        <v>16.44142755506243</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="L2" t="n">
-        <v>196.517279139721</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="M2" t="n">
-        <v>399.9799451336186</v>
+        <v>57.25840604064624</v>
       </c>
       <c r="N2" t="n">
-        <v>603.4426111275161</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="O2" t="n">
-        <v>752.6375612701642</v>
+        <v>163.2132134803468</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.958500671572</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>95.85238145955222</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>95.85238145955222</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>516.3332925774787</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="C3" t="n">
-        <v>516.3332925774787</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="D3" t="n">
-        <v>367.3988829162274</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="E3" t="n">
-        <v>367.3988829162274</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="F3" t="n">
-        <v>220.8643249431123</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="G3" t="n">
-        <v>220.8643249431123</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581695</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L3" t="n">
-        <v>142.2888212580996</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>55.11790488024826</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>161.0727123199488</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>105.9439968277793</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="W3" t="n">
-        <v>723.927074838368</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="X3" t="n">
-        <v>723.927074838368</v>
+        <v>59.08819457959156</v>
       </c>
       <c r="Y3" t="n">
-        <v>516.3332925774787</v>
+        <v>59.08819457959156</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="S4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="T4" t="n">
-        <v>148.224788009872</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="U4" t="n">
-        <v>148.224788009872</v>
+        <v>112.3871215328157</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>58.33406192680584</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.281002320795981</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.792197863116</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C5" t="n">
-        <v>396.792197863116</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D5" t="n">
-        <v>396.792197863116</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E5" t="n">
-        <v>239.4925204373003</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F5" t="n">
-        <v>31.89873817641097</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>604.3859801240053</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>604.3859801240053</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X5" t="n">
-        <v>604.3859801240053</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.792197863116</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.27987404077794</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>752.1869855945927</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>648.6540332037905</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>446.4674385625565</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>238.8736563016672</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>238.8736563016672</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>31.27987404077794</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X6" t="n">
-        <v>31.27987404077794</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y6" t="n">
-        <v>31.27987404077794</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>258.5080104335871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C8" t="n">
-        <v>258.5080104335871</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>258.5080104335871</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>258.5080104335871</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>251.5625096843836</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>466.1017926944764</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>258.5080104335871</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>258.5080104335871</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>258.5080104335871</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y8" t="n">
-        <v>258.5080104335871</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>269.2955212176533</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C9" t="n">
-        <v>269.2955212176533</v>
+        <v>660.701031422288</v>
       </c>
       <c r="D9" t="n">
-        <v>269.2955212176533</v>
+        <v>660.701031422288</v>
       </c>
       <c r="E9" t="n">
-        <v>269.2955212176533</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>269.2955212176533</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>130.5646958002688</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>619.8847831118876</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U9" t="n">
-        <v>619.8847831118876</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V9" t="n">
-        <v>476.8893034785426</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W9" t="n">
-        <v>476.8893034785426</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X9" t="n">
-        <v>476.8893034785426</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y9" t="n">
-        <v>269.2955212176533</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>16.44142755506243</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T12" t="n">
-        <v>431.628992076841</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U12" t="n">
-        <v>224.0352098159517</v>
+        <v>429.6404132758682</v>
       </c>
       <c r="V12" t="n">
-        <v>224.0352098159517</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="W12" t="n">
-        <v>224.0352098159517</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="X12" t="n">
-        <v>16.44142755506243</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.44142755506243</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>44.37127987626019</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N15" t="n">
-        <v>570.0333416264414</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>44.37127987626019</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
         <v>31.35113235729608</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5600,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N18" t="n">
         <v>542.809531908403</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5706,13 +5706,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>812.6742080953335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C20" t="n">
-        <v>812.6742080953335</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D20" t="n">
-        <v>569.2254314512334</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E20" t="n">
-        <v>325.7766548071333</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>812.6742080953335</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="U20" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="V20" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="W20" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X20" t="n">
-        <v>812.6742080953335</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y20" t="n">
-        <v>812.6742080953335</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>420.237879300003</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3034696387518</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3034696387518</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3034696387518</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5840,16 +5840,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>913.4938269565423</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U21" t="n">
-        <v>913.4938269565423</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V21" t="n">
-        <v>678.3417187247995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W21" t="n">
-        <v>434.8929420806995</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X21" t="n">
-        <v>227.0414418751666</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D23" t="n">
-        <v>231.8830517671884</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>944.1299480494607</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>718.7806050553886</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>231.8830517671884</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>853.5488806587123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>853.5488806587123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>853.5488806587123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>853.5488806587123</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>610.1001040146123</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X24" t="n">
-        <v>402.2486038090794</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y24" t="n">
-        <v>194.4883050441255</v>
+        <v>178.5185981156682</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
         <v>19.28114311021272</v>
@@ -6168,31 +6168,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6208,16 +6208,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6259,13 +6259,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
         <v>720.6083788665362</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>235.3523315264278</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>933.9571464551993</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>705.7335281915883</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>470.5814199598456</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W27" t="n">
-        <v>227.1326433157456</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>384.2867411876791</v>
       </c>
     </row>
     <row r="28">
@@ -6375,7 +6375,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6484,28 +6484,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V29" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
         <v>19.28114311021272</v>
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.4632136343998</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>69.01018435327282</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6551,10 +6551,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>401.5856725968725</v>
       </c>
       <c r="X30" t="n">
-        <v>619.4388494194218</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.6785506544679</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>233.7108255783361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>588.4532163200711</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C33" t="n">
-        <v>414.0001870389441</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6806,25 +6806,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>588.4532163200711</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>588.4532163200711</v>
+        <v>257.2326523711826</v>
       </c>
     </row>
     <row r="34">
@@ -6891,10 +6891,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>953.9655401424092</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F35" t="n">
-        <v>710.516763498309</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G35" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6967,22 +6967,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X35" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y35" t="n">
-        <v>953.9655401424092</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>380.2300195200815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>205.7769902389545</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>56.84258057770322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7022,10 +7022,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X36" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>548.4453565401495</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7119,10 +7119,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
         <v>19.28114311021272</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
         <v>262.7299197543128</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>487.2836868729568</v>
+        <v>332.4660919952146</v>
       </c>
       <c r="C39" t="n">
-        <v>312.8306575918298</v>
+        <v>332.4660919952146</v>
       </c>
       <c r="D39" t="n">
-        <v>312.8306575918298</v>
+        <v>183.5316823339633</v>
       </c>
       <c r="E39" t="n">
-        <v>312.8306575918298</v>
+        <v>183.5316823339633</v>
       </c>
       <c r="F39" t="n">
-        <v>312.8306575918298</v>
+        <v>183.5316823339633</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>44.80085691657882</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>44.80085691657882</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>487.2836868729568</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y39" t="n">
-        <v>487.2836868729568</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="40">
@@ -7356,16 +7356,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
         <v>19.28114311021272</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>47.90708355515102</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C41" t="n">
-        <v>28.51141680214578</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D41" t="n">
-        <v>28.51141680214578</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E41" t="n">
-        <v>28.51141680214578</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F41" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>670.6884303378189</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>463.0946480769296</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>463.0946480769296</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>463.0946480769296</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>255.5008658160403</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>47.90708355515102</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>47.90708355515102</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>471.90198284767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>471.90198284767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>322.9675731864187</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>163.7301181809632</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>679.4957651085592</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>679.4957651085592</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U42" t="n">
-        <v>679.4957651085592</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V42" t="n">
-        <v>471.90198284767</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W42" t="n">
-        <v>471.90198284767</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X42" t="n">
-        <v>471.90198284767</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>471.90198284767</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>804.3357255886647</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>804.3357255886647</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>710.0335234506114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>687.5390872628509</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>714.8532122705639</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>754.041250462786</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>797.7321011182223</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>822.0713777531216</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>819.3224477176605</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>804.3357255886647</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>189.1984156022267</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>189.1984156022267</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1984156022267</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F44" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>189.1984156022267</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>85.87524403801982</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>265.9510956226784</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>604.3859801240053</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>604.3859801240053</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U44" t="n">
-        <v>604.3859801240053</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V44" t="n">
-        <v>604.3859801240053</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W44" t="n">
-        <v>396.792197863116</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X44" t="n">
-        <v>396.792197863116</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y44" t="n">
-        <v>189.1984156022267</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.27987404077794</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C45" t="n">
-        <v>31.27987404077794</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D45" t="n">
-        <v>31.27987404077794</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E45" t="n">
-        <v>31.27987404077794</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>142.2888212580996</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M45" t="n">
-        <v>345.7514872519972</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N45" t="n">
-        <v>549.2141532458947</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O45" t="n">
-        <v>752.6768192397923</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>446.4674385625565</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U45" t="n">
-        <v>238.8736563016672</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V45" t="n">
-        <v>238.8736563016672</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W45" t="n">
-        <v>238.8736563016672</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X45" t="n">
-        <v>31.27987404077794</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="Y45" t="n">
-        <v>31.27987404077794</v>
+        <v>55.04605772994853</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>282.9255926065407</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>283.6107404316365</v>
       </c>
       <c r="P2" t="n">
-        <v>301.368163919873</v>
+        <v>282.5834023809789</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>139.0491612396719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>187.48693642428</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,16 +8218,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>204.5647025239554</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8461,10 +8461,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>164.1205091169155</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8698,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8774,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9008,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9248,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9488,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9734,10 +9734,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,19 +9959,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10199,13 +10199,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N30" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10670,13 +10670,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11062,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>143.091025904242</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>139.0491612396719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23272,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>234.2826201338976</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,28 +23302,28 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>276.7704702928643</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23360,7 +23360,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>85.4677721317848</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>68.71670706721397</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23503,22 +23503,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>297.5105822931005</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,13 +23539,13 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23576,25 +23576,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>123.3524214925096</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,19 +23621,19 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>159.5907537065633</v>
       </c>
       <c r="F17" t="n">
-        <v>176.0015501456288</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23776,13 +23776,13 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23946,7 +23946,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23974,19 +23974,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>356.4090673940316</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24013,19 +24013,19 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0.7562331984328523</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,13 +24047,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -24062,10 +24062,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0.07685813645343842</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>121.6254758352848</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24132,7 +24132,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24186,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24211,13 +24211,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>206.5399494528818</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24226,10 +24226,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24250,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>199.2828334142264</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24287,13 +24287,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>162.4378131530763</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>46.46996914126038</v>
       </c>
     </row>
     <row r="25">
@@ -24387,7 +24387,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>46.33425578299912</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
         <v>22.26949182588285</v>
@@ -24408,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>142.3976559772408</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24499,7 +24499,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24527,13 +24527,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>89.55040764298977</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,16 +24569,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24724,10 +24724,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24739,16 +24739,16 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>333.812370168306</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -24773,7 +24773,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>88.11176633258114</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24806,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>127.8135309205405</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>194.5906600982693</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,10 +24961,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24973,19 +24973,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>333.8123701683061</v>
       </c>
     </row>
     <row r="33">
@@ -24995,22 +24995,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>68.30470664471787</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>59.38750492397951</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25046,19 +25046,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25131,13 +25131,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,22 +25162,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>177.9741022682411</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>52.95740108485735</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25359,13 +25359,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>113.6687527430239</v>
@@ -25435,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25444,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,16 +25484,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>49.10816624057917</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>64.13211618311264</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,19 +25517,19 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25596,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25608,7 +25608,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25630,16 +25630,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>346.0711816855324</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>191.5849729979771</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25672,16 +25672,16 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25712,13 +25712,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>130.6911487383642</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25803,16 +25803,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.32518834398857</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,31 +25909,31 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>131.1259181763289</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
@@ -25955,7 +25955,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>130.3791503725255</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -25994,22 +25994,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1020296.353402083</v>
+        <v>1007446.223241651</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1020296.353402083</v>
+        <v>1023297.129592002</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1020296.353402083</v>
+        <v>1023297.129592002</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>426302.732123639</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>426302.732123639</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>449050.6304501003</v>
+        <v>449050.6304501004</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>449050.6304501005</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426302.7321236389</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>426302.732123639</v>
+        <v>449050.6304501003</v>
       </c>
     </row>
   </sheetData>
@@ -26322,28 +26322,28 @@
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>181421.2881101714</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="F2" t="n">
-        <v>181421.2881101714</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="G2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="H2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="I2" t="n">
         <v>191084.7734110322</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="K2" t="n">
+        <v>191084.7734110323</v>
+      </c>
+      <c r="L2" t="n">
         <v>191084.7734110322</v>
-      </c>
-      <c r="I2" t="n">
-        <v>191084.7734110323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>191084.7734110322</v>
-      </c>
-      <c r="K2" t="n">
-        <v>191084.7734110322</v>
-      </c>
-      <c r="L2" t="n">
-        <v>191084.7734110323</v>
       </c>
       <c r="M2" t="n">
         <v>191084.7734110323</v>
@@ -26352,10 +26352,10 @@
         <v>191084.7734110323</v>
       </c>
       <c r="O2" t="n">
-        <v>181421.2881101714</v>
+        <v>191084.7734110323</v>
       </c>
       <c r="P2" t="n">
-        <v>181421.2881101713</v>
+        <v>191084.7734110323</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344263.9595179308</v>
+        <v>372380.6912773508</v>
       </c>
       <c r="C4" t="n">
-        <v>344263.9595179308</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>344263.9595179307</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="F4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="G4" t="n">
         <v>58752.58249917302</v>
@@ -26438,10 +26438,10 @@
         <v>58752.58249917302</v>
       </c>
       <c r="I4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
         <v>58752.58249917302</v>
@@ -26456,10 +26456,10 @@
         <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="P4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917301</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26508,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12838.21663049496</v>
+        <v>44903.88537140589</v>
       </c>
       <c r="C6" t="n">
-        <v>81711.97321218476</v>
+        <v>25543.31658790075</v>
       </c>
       <c r="D6" t="n">
-        <v>81711.97321218482</v>
+        <v>86119.63877456886</v>
       </c>
       <c r="E6" t="n">
-        <v>113199.7177978413</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="F6" t="n">
-        <v>113199.7177978414</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="G6" t="n">
-        <v>107949.4791739304</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="H6" t="n">
-        <v>117678.5221480975</v>
+        <v>105460.5115280572</v>
       </c>
       <c r="I6" t="n">
-        <v>117678.5221480976</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="J6" t="n">
-        <v>63906.01125788814</v>
+        <v>91459.27938777783</v>
       </c>
       <c r="K6" t="n">
-        <v>117678.5221480975</v>
+        <v>57203.55859442453</v>
       </c>
       <c r="L6" t="n">
-        <v>117678.5221480977</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="M6" t="n">
-        <v>117678.5221480976</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="N6" t="n">
-        <v>117678.5221480976</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="O6" t="n">
-        <v>113199.7177978413</v>
+        <v>105460.5115280571</v>
       </c>
       <c r="P6" t="n">
-        <v>113199.7177978413</v>
+        <v>105460.5115280571</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>212.8595420456369</v>
+        <v>378.9153063463019</v>
       </c>
       <c r="F2" t="n">
-        <v>201.358201303431</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>155.5075405762956</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27463,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>58.7229152265467</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27511,22 +27511,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>172.4288530710251</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>186.4133429237194</v>
       </c>
       <c r="W3" t="n">
-        <v>154.5321232753135</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27593,13 +27593,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>260.1571197910224</v>
       </c>
       <c r="V4" t="n">
-        <v>121.6721164735665</v>
+        <v>198.6251143138782</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>233.0104693266412</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27624,10 +27624,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>226.2036894207042</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>301.251446211517</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27697,7 +27697,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>158.0184369674574</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>28.89156603900483</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>88.11912650183325</v>
       </c>
     </row>
     <row r="8">
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>351.1641048164582</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,28 +27897,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>104.4536081380581</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27940,10 +27940,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>7.430788997210414</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27991,7 +27991,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>91.23506231241373</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28052,7 +28052,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P2" t="n">
-        <v>70.1351681646035</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>53.51252900994976</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>70.5902951096252</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35181,10 +35181,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>21.52426467247106</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35418,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35494,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,10 +35655,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36208,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36454,10 +36454,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,19 +36679,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,16 +37159,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,13 +37390,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37782,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0.494781459797586</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
